--- a/social_services_users.xlsx
+++ b/social_services_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EconometricsProject\Spacial-Econometrics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF90E9-1973-419D-8B61-B3CFB5AED291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB84B2C5-C600-4F51-8F35-1D98C2AEBBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="805" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,9 +259,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Social_services_users</t>
-  </si>
-  <si>
     <t>Słupsk</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>social_services_users</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -333,13 +333,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -541,12 +534,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -554,82 +547,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
@@ -976,21 +963,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
@@ -999,20 +986,20 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="B6" s="17"/>
@@ -1025,33 +1012,33 @@
         <v>57</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="20"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="16"/>
@@ -1059,114 +1046,114 @@
         <v>58</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="20"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
       <c r="B15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B16" s="9"/>
@@ -1188,13 +1175,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B18" s="9"/>
@@ -1216,25 +1203,25 @@
         <v>7</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="2:12" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -1244,23 +1231,23 @@
         <v>8</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="2:12" s="14" customFormat="1" ht="17.45" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -1272,13 +1259,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B24" s="9"/>
@@ -1300,13 +1287,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B26" s="9"/>
@@ -1328,13 +1315,13 @@
         <v>11</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B28" s="9"/>
@@ -1356,23 +1343,23 @@
         <v>12</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="2:12" s="14" customFormat="1" ht="18.75" customHeight="1">
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -1384,26 +1371,26 @@
         <v>13</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="2:12" s="14" customFormat="1" ht="18.75" customHeight="1">
       <c r="B32" s="9"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
@@ -1412,24 +1399,24 @@
         <v>14</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" spans="2:12" s="14" customFormat="1" ht="30.75" customHeight="1">
       <c r="B34" s="9"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -1442,23 +1429,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D13:L13"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="D22:G22"/>
@@ -1469,6 +1439,23 @@
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D32:J32"/>
     <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D9:L9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D15:D16" location="'Tabl. 3'!A1" display="LASY GMINNE I TERENY ZIELENI OGÓLNODOSTĘPNEJ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1522,8 +1509,8 @@
   <dimension ref="A1:C665"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
@@ -1534,234 +1521,234 @@
     <col min="4" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="35.450000000000003" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="33" t="s">
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="22">
+        <v>2201</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="22">
+        <v>2202</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="23">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="22">
+        <v>2203</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="22">
+        <v>2204</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="22">
+        <v>2205</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="22">
+        <v>2206</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="23">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="22">
+        <v>2207</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A9" s="22">
+        <v>2208</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="22">
+        <v>2209</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="23">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="22">
+        <v>2210</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="23">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="22">
+        <v>2211</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="22">
+        <v>2212</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="22">
+        <v>2213</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="23">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A15" s="22">
+        <v>2214</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="23">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A16" s="22">
+        <v>2215</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="23">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A17" s="22">
+        <v>2216</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="23">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A18" s="22">
+        <v>2261</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A19" s="22">
+        <v>2262</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="22">
+        <v>2263</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="32">
-        <v>2201</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="32">
-        <v>2202</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="34">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="32">
-        <v>2203</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="34">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="32">
-        <v>2204</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="34">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="32">
-        <v>2205</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="34">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="32">
-        <v>2206</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="34">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="32">
-        <v>2207</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="32">
-        <v>2208</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="32">
-        <v>2209</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="34">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="32">
-        <v>2210</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="34">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="32">
-        <v>2211</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="34">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="32">
-        <v>2212</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="32">
-        <v>2213</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="34">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A15" s="32">
-        <v>2214</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="34">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="32">
-        <v>2215</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="34">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="32">
-        <v>2216</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="34">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="32">
-        <v>2261</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="34">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A19" s="32">
-        <v>2262</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="C20" s="23">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="22">
+        <v>2264</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="34">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="32">
-        <v>2263</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="34">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="32">
-        <v>2264</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="34">
+      <c r="C21" s="23">
         <v>1.4</v>
       </c>
     </row>
@@ -2411,7 +2398,7 @@
     <row r="665" s="1" customFormat="1" ht="10.15"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C671">
-    <sortCondition ref="A1:A671"/>
+    <sortCondition ref="A2:A671"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2419,6 +2406,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ContentTypeId xmlns="http://schemas.microsoft.com/sharepoint/v3">0x00FBEB7090D5ED8B4AADA9FC396769AC9B</ContentTypeId>
+    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Odbiorcy2 xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" xsi:nil="true"/>
+    <Osoba xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">STAT\PIWOWARCZYKM</Osoba>
+    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <NazwaPliku xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">Zał. 2. Tablice.xlsx.xlsx</NazwaPliku>
+    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Pisma" ma:contentTypeID="0x00FBEB7090D5ED8B4AADA9FC396769AC9B" ma:contentTypeVersion="" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="6bc347668491c2bd9b5b9ebe793d10d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14bc6af8e0d4c36dc6f6478fae101c15" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2907,24 +2911,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ContentTypeId xmlns="http://schemas.microsoft.com/sharepoint/v3">0x00FBEB7090D5ED8B4AADA9FC396769AC9B</ContentTypeId>
-    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Odbiorcy2 xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" xsi:nil="true"/>
-    <Osoba xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">STAT\PIWOWARCZYKM</Osoba>
-    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <NazwaPliku xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">Zał. 2. Tablice.xlsx.xlsx</NazwaPliku>
-    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF002163-2C63-4F18-AAC0-A28A4EAD563A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA5D831-E00F-4B67-9BED-FDD874FA9542}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2941,15 +2939,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF002163-2C63-4F18-AAC0-A28A4EAD563A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/social_services_users.xlsx
+++ b/social_services_users.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EconometricsProject\Spacial-Econometrics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB84B2C5-C600-4F51-8F35-1D98C2AEBBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1E25BF-42DF-473F-BB9C-25FD66332A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="805" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spis tablic   List of tables" sheetId="23" r:id="rId1"/>
-    <sheet name="Tab12" sheetId="21" r:id="rId2"/>
+    <sheet name="Tab12" sheetId="21" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tab12'!$B$2:$C$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$B$2:$C$21</definedName>
     <definedName name="_Tab1">#REF!</definedName>
     <definedName name="_Tab2">#REF!</definedName>
     <definedName name="_Tab3">#REF!</definedName>
@@ -28,125 +27,13 @@
     <definedName name="_Tab8">#REF!</definedName>
     <definedName name="_Tab9">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Spis tablic   List of tables'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
-  <si>
-    <t>BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE AND RANGE OF BENEFITING FROM THIS ASSISTANCE IN 2018</t>
-  </si>
-  <si>
-    <t>Spis tablic</t>
-  </si>
-  <si>
-    <t>List of tables</t>
-  </si>
-  <si>
-    <t>TABL. 1.</t>
-  </si>
-  <si>
-    <t>TABL. 2.</t>
-  </si>
-  <si>
-    <t>TABL. 3.</t>
-  </si>
-  <si>
-    <t>TABL. 4.</t>
-  </si>
-  <si>
-    <t>TABL. 5.</t>
-  </si>
-  <si>
-    <t>TABL. 6.</t>
-  </si>
-  <si>
-    <t>TABL. 7.</t>
-  </si>
-  <si>
-    <t>TABL. 8.</t>
-  </si>
-  <si>
-    <t>TABL. 9.</t>
-  </si>
-  <si>
-    <t>TABL. 10.</t>
-  </si>
-  <si>
-    <t>TABL. 11.</t>
-  </si>
-  <si>
-    <t>TABL. 12.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ I ZASIĘG KORZYSTANIA Z TEJ POMOCY W 2018 R.            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ WEDŁUG GRUP WIEKU W 2018 R.             </t>
-  </si>
-  <si>
-    <t>BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE BY AGE GROUPS IN 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBODZY BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ W WIEKU 25 LAT I WIĘCEJ WEDŁUG POZIOMU WYKSZTAŁCENIA W 2018 R.             </t>
-  </si>
-  <si>
-    <t>POOR BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE AGED 25 AND MORE BY EDUCATIONAL LEVEL IN 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBODZY BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ  W WIEKU PRODUKCYJNYM WEDŁUG AKTYWNOŚCI EKONOMICZNEJ W 2018 R.        </t>
-  </si>
-  <si>
-    <t>POOR BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE AT WORKING AGE BY ECONOMIC ACTIVITY IN 2018</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UBODZY BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ KORZYSTAJĄCY  Z TEJ POMOCY 10 LAT LUB WIĘCEJ BĘDĄCY W WIEKU 18–22 LATA W 2018 R. 
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>POOR BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE BENEFITING FROM THIS ASSISTANCE 10 YEARS OR MORE BEING AT AGE 18–22 IN 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOSPODARSTWA DOMOWE BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ W 2018 R.
-             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOUSEHOLDS OF BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE IN 2018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOSPODARSTWA DOMOWE BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ WEDŁUG WIELKOŚCI W 2018 R. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOUSEHOLDS OF BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE BY SIZE IN 2018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDZIAŁ UBOGICH BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ W LUDNOŚCI OGÓŁEM W WOJEWÓDZTWACH,  POWIATACH I GMINACH WEDŁUG WYNIKÓW BADANIA 1.25.11 W 2018 R. I PO UWZGLĘDNIENIU ŚWIADCZENIA WYCHOWAWCZEGO         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POOR BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE AGED 18 AND MORE BY NUMBER OF YEARS OF BENEFITING FROM THIS ASSISTANCE IN 2018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRUCTURE OF POOR HOUSEHOLDS OF BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE BY MAIN CAUSE  OF GRANTING BENEFITS IN 2018  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Powiat gdański</t>
   </si>
@@ -194,66 +81,6 @@
   </si>
   <si>
     <t>Powiat kościerski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOSPODARSTWA DOMOWE BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ WEDŁUG WYSOKOŚCI MIESIĘCZNEGO DOCHODU NA OSOBĘ W 2018 R.            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOUSEHOLDS OF BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE BY AMOUNT OF MONTHLY INCOME PER CAPITA IN 2018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRUKTURA UBOGICH GOSPODARSTW DOMOWYCH BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ WEDŁUG GŁÓWNEJ PRZYCZYNY PRZYZNANIA ŚWIADCZEŃ W 2018 R.                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBOGIE WIELOOSOBOWE GOSPODARSTWA DOMOWE KORZYSTAJĄCE ZE ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ WEDŁUG WIELKOŚCI  I LICZBY POKOLEŃ W 2018 R.                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POOR MULTI–PERSON HOUSEHOLDS BENEFITING FROM SOCIAL ASSISTANCE AT DOMICILE BY SIZE AND NUMBER OF GENERATIONS IN 2018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beneficjenci środowiskowej pomocy społecznej w 2018 r.
-Mienie gmin i powiatów w latach 2015–2017 
-Mienie gmin i powiatów w latach 2015–2017 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UBODZY BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ W WIEKU 18 LAT I WIĘCEJ WEDŁUG LICZBY LAT KORZYSTANIA Z TEJ POMOCY W 2018 R.        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Social assistance beneficiaries in 2018</t>
-  </si>
-  <si>
-    <t>MAJOR DATA ON THE HOUSEHOLDS OF BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE</t>
-  </si>
-  <si>
-    <t>TABL. I</t>
-  </si>
-  <si>
-    <t>TABL. II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAŻNIEJSZE DANE O BENEFICJENTACH ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ </t>
-  </si>
-  <si>
-    <t>MAJOR DATA ON THE BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAŻNIEJSZE DANE O GOSPODARSTWACH DOMOWYCH BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHARE OF POOR BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE IN TOTAL POPULATION IN VOIVODSHIPS, POWIATS AND GMINAS  ACCORDING TO RESULTS OF SURVEY 1.25.11 IN 2018 AND AFTER TAKING INTO ACCOUNT BENEFIT FOR BRINGING UP A CHILD </t>
   </si>
   <si>
     <t>Name</t>
@@ -284,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -332,159 +159,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Czcionka tekstu podstawowego"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -507,26 +197,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -534,12 +206,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -547,88 +218,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normalny 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normalny 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normalny 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normalny 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normalny 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normalny 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normalny 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normalny 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normalny 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normalny 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normalny_Tabl.publ.L3(1-10)" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -941,569 +545,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:L36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.1328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="1.86328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="127.86328125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="3"/>
-    <col min="7" max="7" width="12.3984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.86328125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" customHeight="1">
-      <c r="B3" s="10"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1">
-      <c r="B4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1">
-      <c r="B5" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-    </row>
-    <row r="8" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-    </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-    </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B14" s="9"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="2:12" s="14" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="2:12" s="14" customFormat="1" ht="17.45" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B25" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-    </row>
-    <row r="26" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-    </row>
-    <row r="28" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-    </row>
-    <row r="30" spans="2:12" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="2:12" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="2:12" s="12" customFormat="1" ht="30.2" customHeight="1">
-      <c r="B33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="2:12" s="14" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B34" s="9"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="36" spans="2:12" ht="14.25" customHeight="1">
-      <c r="D36" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D9:L9"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D15:D16" location="'Tabl. 3'!A1" display="LASY GMINNE I TERENY ZIELENI OGÓLNODOSTĘPNEJ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D17:D18" location="'Tabl. 4'!A1" display="DROGI GMINNE I POWIATOWE " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D19:D20" location="'Tabl. 5'!A1" display="WODOCIĄGI I KANALIZACJA" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D21:D22" location="'Tabl. 6'!A1" display="KOMUNALNE OCZYSZCZALNIE ŚCIEKÓW I ODPADY ZEBRANE" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D23:D24" location="'Tabl. 7'!A1" display="SIEĆ GAZOWA I CIEPŁOWNICTWO" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D25:D26" location="'Tabl. 8'!A1" display="LOKALE SOCJALNE I DODATKI MIESZKANIOWE" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D27:D28" location="'Tabl. 8'!A1" display="LOKALE SOCJALNE I DODATKI MIESZKANIOWE" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D29:D30" location="'Tabl. 8'!A1" display="LOKALE SOCJALNE I DODATKI MIESZKANIOWE" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D31:D32" location="'Tabl. 8'!A1" display="LOKALE SOCJALNE I DODATKI MIESZKANIOWE" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D33:D34" location="'Tabl. 8'!A1" display="LOKALE SOCJALNE I DODATKI MIESZKANIOWE" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B11" location="'Tab1'!A1" display="TABL. 1." xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" location="'Tab2'!A1" display="TABL. 2." xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B15" location="'Tab3'!A1" display="TABL. 3." xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B17" location="'Tab4'!A1" display="TABL. 4." xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B19" location="'Tab5'!A1" display="TABL. 5." xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B21" location="'Tab6'!A1" display="TABL. 6." xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B23" location="'Tab7'!A1" display="TABL. 7." xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B25" location="'Tab8'!A1" display="TABL. 8." xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B27" location="'Tab9'!A1" display="TABL. 9." xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B29" location="'Tab10'!A1" display="TABL. 10." xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B31" location="'Tab11'!A1" display="TABL. 11." xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B33" location="'Tab12'!A1" display="TABL. 12." xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D11:L11" location="'Tab1'!A1" display="BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ I ZASIĘG KORZYSTANIA Z TEJ POMOCY W 2018 R.            " xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D13:L13" location="'Tab2'!A1" display="BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ WEDŁUG GRUP WIEKU W 2018 R.             " xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D15:L15" location="'Tab3'!A1" display="UBODZY BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ W WIEKU 25 LAT I WIĘCEJ WEDŁUG POZIOMU WYKSZTAŁCENIA W 2018 R.             " xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D17:H17" location="'Tab4'!A1" display="UBODZY BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ  W WIEKU PRODUKCYJNYM WEDŁUG AKTYWNOŚCI EKONOMICZNEJ W 2018 R.        " xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D19:H19" location="'Tab5'!A1" display="UBODZY BENEFICJENCI ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ W WIEKU 18 LAT I WIECEJ WEDŁUG LICZBY LAT KORZYSTANIA Z TEJ POMOCY W 2018 R.        " xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D21:H21" location="'Tab6'!A1" display="'Tab6'!A1" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D23:H23" location="'Tab7'!A1" display="'Tab7'!A1" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D25:H25" location="'Tab8'!A1" display="GOSPODARSTWA DOMOWE BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ WEDŁUG WIELKOŚCI W 2018 R. " xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D27:H27" location="'Tab9'!A1" display="GOSPODARSTWA DOMOWE BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ WEDŁUG WYSOKOŚCI MIESIĘCZNEGO DOCHODU NA OSOBĘ W 2018 R.            " xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D29:H29" location="'Tab10'!A1" display="UBOGIE GOSPODARSTWA DOMOWE KORZYSTAJĄCE ZE ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ WEDŁUG WIELKOŚCI  I LICZBY POKOLEŃ W 2018 R.                " xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D31:H31" location="'Tab11'!A1" display="STRUKTURA UBOGICH GOSPODARSTW DOMOWYCH BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ WEDŁUG GŁÓWNEJ PRZYCZYNY PRZYZNANIA ŚWIADCZEŃ W 2018 R.                    " xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D33:H33" location="'Tab12'!A1" display="UDZIAŁ UBOGICH BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ W LUDNOŚCI OGÓŁEM W WOJEWÓDZTWACH,  POWIATACH I GMINACH WEDŁUG WYNIKÓW BADANIA 1.25.11 W 2018 R. I PO UWZGLĘDNIENIU ŚWIADCZENIA WYCHOWAWCZEGO         " xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B7" location="'Tab I'!A1" display="TABL. I" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D7:L7" location="'Tab I'!B1" display="WAŻNIEJSZE DANE O BENEFICJENTACH ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ " xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D9" location="TabII!A1" display="WAŻNIEJSZE DANE O GOSPODARSTWACH DOMOWYCH BENEFICJENTÓW ŚRODOWISKOWEJ POMOCY SPOŁECZNEJ " xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B9" location="TabII!A1" display="TABL. II" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-  </hyperlinks>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Arkusz13"/>
   <dimension ref="A1:C665"/>
@@ -1523,232 +564,232 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="22">
+      <c r="A2" s="3">
         <v>2201</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="22">
+      <c r="A3" s="3">
         <v>2202</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4">
         <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="22">
+      <c r="A4" s="3">
         <v>2203</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="22">
+      <c r="A5" s="3">
         <v>2204</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="22">
+      <c r="A6" s="3">
         <v>2205</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
         <v>3.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="22">
+      <c r="A7" s="3">
         <v>2206</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
         <v>5.7</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="22">
+      <c r="A8" s="3">
         <v>2207</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="22">
+      <c r="A9" s="3">
         <v>2208</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="22">
+      <c r="A10" s="3">
         <v>2209</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="23">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
         <v>4.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="22">
+      <c r="A11" s="3">
         <v>2210</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
         <v>4.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="22">
+      <c r="A12" s="3">
         <v>2211</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="22">
+      <c r="A13" s="3">
         <v>2212</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="22">
+      <c r="A14" s="3">
         <v>2213</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
         <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A15" s="22">
+      <c r="A15" s="3">
         <v>2214</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
         <v>3.7</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="22">
+      <c r="A16" s="3">
         <v>2215</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
         <v>3.4</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="22">
+      <c r="A17" s="3">
         <v>2216</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="23">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4">
         <v>6.6</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="22">
+      <c r="A18" s="3">
         <v>2261</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="23">
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A19" s="22">
+      <c r="A19" s="3">
         <v>2262</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="23">
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="22">
+      <c r="A20" s="3">
         <v>2263</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="23">
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4">
         <v>3.1</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="22">
+      <c r="A21" s="3">
         <v>2264</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="23">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
         <v>1.4</v>
       </c>
     </row>
@@ -2406,23 +1447,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ContentTypeId xmlns="http://schemas.microsoft.com/sharepoint/v3">0x00FBEB7090D5ED8B4AADA9FC396769AC9B</ContentTypeId>
-    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Odbiorcy2 xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" xsi:nil="true"/>
-    <Osoba xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">STAT\PIWOWARCZYKM</Osoba>
-    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <NazwaPliku xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">Zał. 2. Tablice.xlsx.xlsx</NazwaPliku>
-    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Pisma" ma:contentTypeID="0x00FBEB7090D5ED8B4AADA9FC396769AC9B" ma:contentTypeVersion="" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="6bc347668491c2bd9b5b9ebe793d10d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14bc6af8e0d4c36dc6f6478fae101c15" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2911,18 +1935,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF002163-2C63-4F18-AAC0-A28A4EAD563A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ContentTypeId xmlns="http://schemas.microsoft.com/sharepoint/v3">0x00FBEB7090D5ED8B4AADA9FC396769AC9B</ContentTypeId>
+    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Odbiorcy2 xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" xsi:nil="true"/>
+    <Osoba xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">STAT\PIWOWARCZYKM</Osoba>
+    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <NazwaPliku xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">Zał. 2. Tablice.xlsx.xlsx</NazwaPliku>
+    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA5D831-E00F-4B67-9BED-FDD874FA9542}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2939,4 +1969,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF002163-2C63-4F18-AAC0-A28A4EAD563A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/social_services_users.xlsx
+++ b/social_services_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EconometricsProject\Spacial-Econometrics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1E25BF-42DF-473F-BB9C-25FD66332A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18250D31-1575-435B-99E4-7A111DF06B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tab12" sheetId="21" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$B$2:$C$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$B$2:$B$21</definedName>
     <definedName name="_Tab1">#REF!</definedName>
     <definedName name="_Tab2">#REF!</definedName>
     <definedName name="_Tab3">#REF!</definedName>
@@ -33,70 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Powiat gdański</t>
-  </si>
-  <si>
-    <t>Powiat kartuski</t>
-  </si>
-  <si>
-    <t>Powiat nowodworski</t>
-  </si>
-  <si>
-    <t>Powiat pucki</t>
-  </si>
-  <si>
-    <t>Powiat wejherowski</t>
-  </si>
-  <si>
-    <t>Powiat bytowski</t>
-  </si>
-  <si>
-    <t>Powiat lęborski</t>
-  </si>
-  <si>
-    <t>Powiat słupski</t>
-  </si>
-  <si>
-    <t>Powiat kwidzyński</t>
-  </si>
-  <si>
-    <t>Powiat malborski</t>
-  </si>
-  <si>
-    <t>Powiat starogardzki</t>
-  </si>
-  <si>
-    <t>Powiat tczewski</t>
-  </si>
-  <si>
-    <t>Powiat sztumski</t>
-  </si>
-  <si>
-    <t>Powiat chojnicki</t>
-  </si>
-  <si>
-    <t>Powiat człuchowski</t>
-  </si>
-  <si>
-    <t>Powiat kościerski</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Słupsk</t>
-  </si>
-  <si>
-    <t>Gdańsk</t>
-  </si>
-  <si>
-    <t>Gdynia</t>
-  </si>
-  <si>
-    <t>Sopot</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Code</t>
   </si>
@@ -547,263 +484,199 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Arkusz13"/>
-  <dimension ref="A1:C665"/>
+  <dimension ref="A1:B665"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.1328125" style="2"/>
-    <col min="2" max="2" width="39.265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="15.86328125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="3">
         <v>2201</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="3">
         <v>2202</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="4">
         <v>3.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3">
         <v>2203</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="3">
         <v>2204</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="3">
         <v>2205</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="4">
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="3">
         <v>2206</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="4">
         <v>5.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="3">
         <v>2207</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="3">
         <v>2208</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="3">
         <v>2209</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="4">
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="3">
         <v>2210</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="4">
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="3">
         <v>2211</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="3">
         <v>2212</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="14" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="3">
         <v>2213</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="4">
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="15" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="3">
         <v>2214</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="4">
         <v>3.7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="3">
         <v>2215</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="4">
         <v>3.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="3">
         <v>2216</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="4">
         <v>6.6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A18" s="3">
         <v>2261</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="3">
         <v>2262</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="20" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="3">
         <v>2263</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="4">
         <v>3.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="21" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="3">
         <v>2264</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="10.15"/>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="10.15"/>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="10.15"/>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="10.15"/>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="10.15"/>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="10.15"/>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="10.15"/>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="10.15"/>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="10.15"/>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="10.15"/>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="22" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="23" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="24" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="25" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="26" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="27" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="28" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="29" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="30" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="31" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="32" spans="1:2" s="1" customFormat="1" ht="10.15"/>
     <row r="33" s="1" customFormat="1" ht="10.15"/>
     <row r="34" s="1" customFormat="1" ht="10.15"/>
     <row r="35" s="1" customFormat="1" ht="10.15"/>
@@ -1438,7 +1311,7 @@
     <row r="664" s="1" customFormat="1" ht="10.15"/>
     <row r="665" s="1" customFormat="1" ht="10.15"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C671">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B671">
     <sortCondition ref="A2:A671"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1447,6 +1320,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ContentTypeId xmlns="http://schemas.microsoft.com/sharepoint/v3">0x00FBEB7090D5ED8B4AADA9FC396769AC9B</ContentTypeId>
+    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Odbiorcy2 xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" xsi:nil="true"/>
+    <Osoba xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">STAT\PIWOWARCZYKM</Osoba>
+    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <NazwaPliku xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">Zał. 2. Tablice.xlsx.xlsx</NazwaPliku>
+    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Pisma" ma:contentTypeID="0x00FBEB7090D5ED8B4AADA9FC396769AC9B" ma:contentTypeVersion="" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="6bc347668491c2bd9b5b9ebe793d10d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14bc6af8e0d4c36dc6f6478fae101c15" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1935,24 +1825,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ContentTypeId xmlns="http://schemas.microsoft.com/sharepoint/v3">0x00FBEB7090D5ED8B4AADA9FC396769AC9B</ContentTypeId>
-    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Odbiorcy2 xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" xsi:nil="true"/>
-    <Osoba xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">STAT\PIWOWARCZYKM</Osoba>
-    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <NazwaPliku xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">Zał. 2. Tablice.xlsx.xlsx</NazwaPliku>
-    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF002163-2C63-4F18-AAC0-A28A4EAD563A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA5D831-E00F-4B67-9BED-FDD874FA9542}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1969,15 +1853,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF002163-2C63-4F18-AAC0-A28A4EAD563A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>